--- a/data/stock_list_with_name&num.xlsx
+++ b/data/stock_list_with_name&num.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,60 +368,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>BGF리테일</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>282330</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CJ ENM</t>
+          <t>CJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>035760</t>
+          <t>001040</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CJ대한통운</t>
+          <t>CJ CGV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>079160</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CJ제일제당</t>
+          <t>CJ대한통운</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>097950</t>
+          <t>000120</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DB손해보험</t>
+          <t>CJ제일제당</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005830</t>
+          <t>097950</t>
         </is>
       </c>
     </row>
@@ -464,336 +464,336 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>KCC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>030200</t>
+          <t>002380</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>030200</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003550</t>
+          <t>033780</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LG디스플레이</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>034220</t>
+          <t>003550</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LG생활건강</t>
+          <t>LG디스플레이</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>051900</t>
+          <t>034220</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LG유플러스</t>
+          <t>LG생활건강</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>032640</t>
+          <t>051900</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LG이노텍</t>
+          <t>LG유플러스</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011070</t>
+          <t>032640</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>LG이노텍</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>011070</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>066570</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>051910</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NH투자증권</t>
+          <t>LIG넥스원</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>079550</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>POSCO</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>035420</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S-Oil</t>
+          <t>NH투자증권</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010950</t>
+          <t>005940</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>POSCO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>005490</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>S-Oil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>010950</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SK텔레콤</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>017670</t>
+          <t>034730</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>096770</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>강원랜드</t>
+          <t>SK텔레콤</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>035250</t>
+          <t>017670</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>000660</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>기아차</t>
+          <t>강원랜드</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>035250</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>010130</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>넷마블</t>
+          <t>기아차</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>251270</t>
+          <t>000270</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>대림산업</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000210</t>
+          <t>024110</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>대우조선해양</t>
+          <t>농심</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>004370</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>대한항공</t>
+          <t>동서</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>003490</t>
+          <t>026960</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>더존비즈온</t>
+          <t>롯데쇼핑</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>012510</t>
+          <t>023530</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>롯데쇼핑</t>
+          <t>롯데제과</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>023530</t>
+          <t>280360</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>롯데지주</t>
+          <t>롯데칠성</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>004990</t>
+          <t>005300</t>
         </is>
       </c>
     </row>
@@ -812,48 +812,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>미래에셋대우</t>
+          <t>맥쿼리인프라</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>006800</t>
+          <t>088980</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>삼성SDI</t>
+          <t>메디톡스</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>006400</t>
+          <t>086900</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>삼성물산</t>
+          <t>삼성SDI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>028260</t>
+          <t>006400</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>삼성물산</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>028260</t>
         </is>
       </c>
     </row>
@@ -884,624 +884,540 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>삼성엔지니어링</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>028050</t>
+          <t>009150</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>005930</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>삼성전자우</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>005935</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>삼성전자우</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>010140</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>삼성증권</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>016360</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>삼성증권</t>
+          <t>삼성카드</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>016360</t>
+          <t>029780</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>삼성카드</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>029780</t>
+          <t>000810</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>068270</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>신세계</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>004170</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>스튜디오드래곤</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>253450</t>
+          <t>055550</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>신세계</t>
+          <t>아모레G</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>004170</t>
+          <t>002790</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>090430</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>쌍용양회</t>
+          <t>에스원</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>003410</t>
+          <t>012750</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>씨젠</t>
+          <t>엔씨소프트</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>096530</t>
+          <t>036570</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>아모레G</t>
+          <t>오뚜기</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>007310</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>오리온</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>090430</t>
+          <t>271560</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>에스원</t>
+          <t>유한양행</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>012750</t>
+          <t>000100</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>에이치엘비</t>
+          <t>이마트</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>028300</t>
+          <t>139480</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>에이프로젠 KIC</t>
+          <t>제일기획</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>030000</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>엔씨소프트</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>036570</t>
+          <t>035720</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>오뚜기</t>
+          <t>코리안리</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>007310</t>
+          <t>003690</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>오리온</t>
+          <t>코웨이</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>271560</t>
+          <t>021240</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>하나금융지주</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>086790</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>유한양행</t>
+          <t>한국가스공사</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>036460</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>이마트</t>
+          <t>한국금융지주</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>139480</t>
+          <t>071050</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>제일기획</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>030000</t>
+          <t>015760</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>제주항공</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>089590</t>
+          <t>047810</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>한미사이언스</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>008930</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>케이엠더블유</t>
+          <t>한미약품</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>032500</t>
+          <t>128940</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>코웨이</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>021240</t>
+          <t>009240</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>티웨이항공</t>
+          <t>한온시스템</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>091810</t>
+          <t>018880</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>포스코케미칼</t>
+          <t>한전KPS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>051600</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>하나금융지주</t>
+          <t>한화</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>086790</t>
+          <t>000880</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>하이트진로</t>
+          <t>한화생명</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>000080</t>
+          <t>088350</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>한국가스공사</t>
+          <t>현대건설</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>036460</t>
+          <t>000720</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>한국금융지주</t>
+          <t>현대그린푸드</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>071050</t>
+          <t>005440</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>086280</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>한국조선해양</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>012330</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>현대백화점</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>069960</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>한미사이언스</t>
+          <t>현대위아</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>008930</t>
+          <t>011210</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>한미약품</t>
+          <t>현대제철</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>128940</t>
+          <t>004020</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>한온시스템</t>
+          <t>현대차</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>018880</t>
+          <t>005380</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>한진칼</t>
+          <t>현대해상</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>180640</t>
+          <t>001450</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>한화솔루션</t>
+          <t>호텔신라</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>009830</t>
+          <t>008770</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>현대건설</t>
+          <t>효성</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>000720</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>현대글로비스</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>086280</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>현대모비스</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>012330</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>현대제철</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>004020</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>현대중공업지주</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>267250</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>현대차</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>005380</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>호텔신라</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>008770</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>휠라홀딩스</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>081660</t>
+          <t>004800</t>
         </is>
       </c>
     </row>

--- a/data/stock_list_with_name&num.xlsx
+++ b/data/stock_list_with_name&num.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,12 +368,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BGF리테일</t>
+          <t>BNK금융지주</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>282330</t>
+          <t>138930</t>
         </is>
       </c>
     </row>
@@ -392,12 +392,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CJ CGV</t>
+          <t>CJ ENM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>079160</t>
+          <t>035760</t>
         </is>
       </c>
     </row>
@@ -464,960 +464,1068 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KCC</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002380</t>
+          <t>030200</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>030200</t>
+          <t>033780</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>003550</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>LG디스플레이</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003550</t>
+          <t>034220</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LG디스플레이</t>
+          <t>LG생활건강</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>034220</t>
+          <t>051900</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LG생활건강</t>
+          <t>LG유플러스</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>051900</t>
+          <t>032640</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LG유플러스</t>
+          <t>LG이노텍</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>032640</t>
+          <t>011070</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LG이노텍</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011070</t>
+          <t>066570</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>051910</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>035420</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LIG넥스원</t>
+          <t>NH투자증권</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>079550</t>
+          <t>005940</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>POSCO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>005490</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NH투자증권</t>
+          <t>S-Oil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>010950</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>POSCO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>034730</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S-Oil</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010950</t>
+          <t>096770</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SK텔레콤</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>017670</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>000660</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SK텔레콤</t>
+          <t>강원랜드</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>017670</t>
+          <t>035250</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>010130</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>강원랜드</t>
+          <t>기아차</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>035250</t>
+          <t>000270</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>024110</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>기아차</t>
+          <t>넷마블</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>251270</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>녹십자</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>006280</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>농심</t>
+          <t>녹십자홀딩스</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004370</t>
+          <t>005250</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>동서</t>
+          <t>대림산업</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>026960</t>
+          <t>000210</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>롯데쇼핑</t>
+          <t>대우건설</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>023530</t>
+          <t>047040</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>롯데제과</t>
+          <t>대우조선해양</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>280360</t>
+          <t>042660</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>롯데칠성</t>
+          <t>대한항공</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>003490</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>롯데케미칼</t>
+          <t>더존비즈온</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011170</t>
+          <t>012510</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>맥쿼리인프라</t>
+          <t>동원시스템즈</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>088980</t>
+          <t>014820</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>메디톡스</t>
+          <t>두산중공업</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>086900</t>
+          <t>034020</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>삼성SDI</t>
+          <t>롯데쇼핑</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>006400</t>
+          <t>023530</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>삼성물산</t>
+          <t>롯데케미칼</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>028260</t>
+          <t>011170</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>삼성생명</t>
+          <t>삼성SDI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>032830</t>
+          <t>006400</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>삼성에스디에스</t>
+          <t>삼성물산</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>018260</t>
+          <t>028260</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>207940</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>삼성생명</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>032830</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>삼성전자우</t>
+          <t>삼성에스디에스</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>018260</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>삼성엔지니어링</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>028050</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>삼성증권</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>016360</t>
+          <t>009150</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>삼성카드</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>029780</t>
+          <t>005930</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>삼성전자우</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>005935</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>010140</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>신세계</t>
+          <t>삼성증권</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>004170</t>
+          <t>016360</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>삼성카드</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>029780</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>아모레G</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>000810</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>090430</t>
+          <t>068270</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>에스원</t>
+          <t>신세계</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>012750</t>
+          <t>004170</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>엔씨소프트</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>036570</t>
+          <t>055550</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>오뚜기</t>
+          <t>쌍용양회</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>007310</t>
+          <t>003410</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>오리온</t>
+          <t>씨젠</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>271560</t>
+          <t>096530</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>유한양행</t>
+          <t>아모레G</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>002790</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>이마트</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>139480</t>
+          <t>090430</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>제일기획</t>
+          <t>에스원</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>030000</t>
+          <t>012750</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>에이치엘비</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>028300</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>코리안리</t>
+          <t>엔씨소프트</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>003690</t>
+          <t>036570</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>코웨이</t>
+          <t>영풍</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>021240</t>
+          <t>000670</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>하나금융지주</t>
+          <t>오뚜기</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>086790</t>
+          <t>007310</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>한국가스공사</t>
+          <t>오리온</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>036460</t>
+          <t>271560</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>한국금융지주</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>071050</t>
+          <t>316140</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>유한양행</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>000100</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>이마트</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>139480</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>한미사이언스</t>
+          <t>제일기획</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>008930</t>
+          <t>030000</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>한미약품</t>
+          <t>제주항공</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>128940</t>
+          <t>089590</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>009240</t>
+          <t>035720</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>한온시스템</t>
+          <t>케이엠더블유</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>018880</t>
+          <t>032500</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>한전KPS</t>
+          <t>코리안리</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>051600</t>
+          <t>003690</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>한화</t>
+          <t>코미팜</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>041960</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>한화생명</t>
+          <t>코웨이</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>088350</t>
+          <t>021240</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>현대건설</t>
+          <t>티웨이항공</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>000720</t>
+          <t>091810</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>현대그린푸드</t>
+          <t>팬오션</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>005440</t>
+          <t>028670</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>하나금융지주</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>086790</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>하이트진로</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>000080</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>현대백화점</t>
+          <t>한국가스공사</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>069960</t>
+          <t>036460</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>현대위아</t>
+          <t>한국금융지주</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>011210</t>
+          <t>071050</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>현대제철</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>004020</t>
+          <t>015760</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>한국콜마</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>161890</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>현대해상</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>001450</t>
+          <t>047810</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>호텔신라</t>
+          <t>한미사이언스</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>008770</t>
+          <t>008930</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>효성</t>
+          <t>한미약품</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>004800</t>
+          <t>128940</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>한세실업</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>105630</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>한온시스템</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>018880</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>한진칼</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>180640</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>현대건설</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000720</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>086280</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012330</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004020</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005380</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>호텔신라</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008770</t>
         </is>
       </c>
     </row>

--- a/data/stock_list_with_name&num.xlsx
+++ b/data/stock_list_with_name&num.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,60 +368,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BNK금융지주</t>
+          <t>CJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>138930</t>
+          <t>001040</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>CJ ENM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>035760</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CJ ENM</t>
+          <t>CJ대한통운</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>035760</t>
+          <t>000120</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CJ대한통운</t>
+          <t>CJ제일제당</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>097950</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CJ제일제당</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>097950</t>
+          <t>017940</t>
         </is>
       </c>
     </row>
@@ -464,1068 +464,1104 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>KCC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>030200</t>
+          <t>002380</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>030200</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003550</t>
+          <t>033780</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LG디스플레이</t>
+          <t>LF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>034220</t>
+          <t>093050</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LG생활건강</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>051900</t>
+          <t>003550</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LG유플러스</t>
+          <t>LG디스플레이</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>032640</t>
+          <t>034220</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LG이노텍</t>
+          <t>LG생활건강</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011070</t>
+          <t>051900</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>LG유플러스</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>032640</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>LG이노텍</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>011070</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>066570</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NH투자증권</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>051910</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>POSCO</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>035420</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S-Oil</t>
+          <t>NH투자증권</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010950</t>
+          <t>005940</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NICE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>034310</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>POSCO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>005490</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SK텔레콤</t>
+          <t>S-Oil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>017670</t>
+          <t>010950</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>034730</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>강원랜드</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>035250</t>
+          <t>096770</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>SK텔레콤</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>017670</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>기아차</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>000660</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>강원랜드</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>035250</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>넷마블</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>251270</t>
+          <t>010130</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>녹십자</t>
+          <t>기아차</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006280</t>
+          <t>000270</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>녹십자홀딩스</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005250</t>
+          <t>024110</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>대림산업</t>
+          <t>남양유업</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>000210</t>
+          <t>003920</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>대우건설</t>
+          <t>녹십자</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>047040</t>
+          <t>006280</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>대우조선해양</t>
+          <t>녹십자홀딩스</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>005250</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>대한항공</t>
+          <t>대림산업</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003490</t>
+          <t>000210</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>더존비즈온</t>
+          <t>대우건설</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>012510</t>
+          <t>047040</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>동원시스템즈</t>
+          <t>대우조선해양</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>014820</t>
+          <t>042660</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>두산중공업</t>
+          <t>대한항공</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>003490</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>롯데쇼핑</t>
+          <t>더존비즈온</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>023530</t>
+          <t>012510</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>롯데케미칼</t>
+          <t>동원시스템즈</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>011170</t>
+          <t>014820</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>삼성SDI</t>
+          <t>두산중공업</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>006400</t>
+          <t>034020</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>삼성물산</t>
+          <t>롯데쇼핑</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>028260</t>
+          <t>023530</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>롯데케미칼</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>011170</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>삼성생명</t>
+          <t>롯데하이마트</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>032830</t>
+          <t>071840</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>삼성에스디에스</t>
+          <t>빙그레</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>018260</t>
+          <t>005180</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>삼성엔지니어링</t>
+          <t>삼성SDI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>028050</t>
+          <t>006400</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>삼성물산</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>028260</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>207940</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>삼성전자우</t>
+          <t>삼성생명</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>032830</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>삼성에스디에스</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>018260</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>삼성증권</t>
+          <t>삼성엔지니어링</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>016360</t>
+          <t>028050</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>삼성카드</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>029780</t>
+          <t>009150</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>005930</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>삼성전자우</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>005935</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>신세계</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>004170</t>
+          <t>010140</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>삼성증권</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>016360</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>쌍용양회</t>
+          <t>삼성카드</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>003410</t>
+          <t>029780</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>씨젠</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>096530</t>
+          <t>000810</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>아모레G</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>068270</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>신세계</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>090430</t>
+          <t>004170</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>에스원</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>012750</t>
+          <t>055550</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>에이치엘비</t>
+          <t>쌍용차</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>028300</t>
+          <t>003620</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>엔씨소프트</t>
+          <t>씨젠</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>036570</t>
+          <t>096530</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>영풍</t>
+          <t>아모레G</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>000670</t>
+          <t>002790</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>오뚜기</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>007310</t>
+          <t>090430</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>오리온</t>
+          <t>아시아나항공</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>271560</t>
+          <t>020560</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>안랩</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>053800</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>유한양행</t>
+          <t>에스원</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>012750</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>이마트</t>
+          <t>에이치엘비</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>139480</t>
+          <t>028300</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>제일기획</t>
+          <t>엔씨소프트</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>030000</t>
+          <t>036570</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>제주항공</t>
+          <t>오뚜기</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>089590</t>
+          <t>007310</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>유한양행</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>000100</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>케이엠더블유</t>
+          <t>이마트</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>032500</t>
+          <t>139480</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>코리안리</t>
+          <t>제일기획</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>003690</t>
+          <t>030000</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>코미팜</t>
+          <t>제주항공</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>041960</t>
+          <t>089590</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>코웨이</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>021240</t>
+          <t>035720</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>티웨이항공</t>
+          <t>케이엠더블유</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>091810</t>
+          <t>032500</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>팬오션</t>
+          <t>코리안리</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>028670</t>
+          <t>003690</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>하나금융지주</t>
+          <t>코웨이</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>086790</t>
+          <t>021240</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>하이트진로</t>
+          <t>팬오션</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>000080</t>
+          <t>028670</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>한국가스공사</t>
+          <t>하나금융지주</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>036460</t>
+          <t>086790</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>한국금융지주</t>
+          <t>하이트진로</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>071050</t>
+          <t>000080</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>한국가스공사</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>036460</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>한국콜마</t>
+          <t>한국금융지주</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>161890</t>
+          <t>071050</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>015760</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>한미사이언스</t>
+          <t>한국콜마</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>008930</t>
+          <t>161890</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>한미약품</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>128940</t>
+          <t>047810</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>한세실업</t>
+          <t>한미사이언스</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>105630</t>
+          <t>008930</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>한온시스템</t>
+          <t>한미약품</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>018880</t>
+          <t>128940</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>한진칼</t>
+          <t>한세실업</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>180640</t>
+          <t>105630</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>현대건설</t>
+          <t>한온시스템</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>000720</t>
+          <t>018880</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>한진칼</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>180640</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>현대건설</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>000720</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>현대제철</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>004020</t>
+          <t>086280</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>012330</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>현대제철</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004020</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005380</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>호텔신라</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>008770</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>효성</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004800</t>
         </is>
       </c>
     </row>
